--- a/cards_stats/20161012_1914/萨满_标准.xlsx
+++ b/cards_stats/20161012_1914/萨满_标准.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/z/Sync/Personal/Coding/Python/hs_data/cards_stats/20161012_1914/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-1820" yWindow="-17340" windowWidth="33280" windowHeight="15620"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cards" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="top_decks" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="career_decks" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="cards" sheetId="1" r:id="rId1"/>
+    <sheet name="top_decks" sheetId="2" r:id="rId2"/>
+    <sheet name="career_decks" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="128">
   <si>
     <t>id</t>
   </si>
@@ -405,20 +418,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -433,17 +452,63 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N20" totalsRowShown="0">
+  <autoFilter ref="A1:N20"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="id"/>
+    <tableColumn id="2" name="name"/>
+    <tableColumn id="3" name="cost"/>
+    <tableColumn id="4" name="avg_count" dataDxfId="3"/>
+    <tableColumn id="5" name="rarity"/>
+    <tableColumn id="6" name="description"/>
+    <tableColumn id="7" name="avg_win_rate" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="8" name="best_win_rate" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="9" name="syn_win_rate" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="10" name="played"/>
+    <tableColumn id="11" name="users"/>
+    <tableColumn id="12" name="used_in_decks"/>
+    <tableColumn id="13" name="score"/>
+    <tableColumn id="14" name="recommend"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -730,20 +795,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="87.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -787,1086 +861,1248 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>5</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.6135799626474275</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.6398989003192621</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.6214756439489779</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="G2" s="2">
+        <v>0.61357996264742753</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.63989890031926211</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.62147564394897792</v>
+      </c>
+      <c r="J2">
         <v>39087</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>5377</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>3</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>10</v>
       </c>
       <c r="N2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>5</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.6096926871541897</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.6465437400016839</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.6207480030084379</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="G3" s="2">
+        <v>0.60969268715418967</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.64654374000168391</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.62074800300843791</v>
+      </c>
+      <c r="J3">
         <v>300020</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>40341</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>7</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>6</v>
       </c>
       <c r="N3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="1">
         <v>1.833333333333333</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.6096016740953658</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.6465437400016839</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.6206842938672612</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="G4" s="2">
+        <v>0.60960167409536581</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.64654374000168391</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.62068429386726121</v>
+      </c>
+      <c r="J4">
         <v>672841</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>72913</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>18</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>3</v>
       </c>
       <c r="N4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
-        <v>1.692307692307692</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5" s="1">
+        <v>1.6923076923076921</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.6076686216366559</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.6465437400016839</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.6193311571461643</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="G5" s="2">
+        <v>0.60766862163665591</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.64654374000168391</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.61933115714616427</v>
+      </c>
+      <c r="J5">
         <v>456614</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>45464</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>13</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>10</v>
       </c>
       <c r="N5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.6075243949084246</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.6465437400016839</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.6192301984364024</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="G6" s="2">
+        <v>0.60752439490842458</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.64654374000168391</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.61923019843640237</v>
+      </c>
+      <c r="J6">
         <v>899368</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>89643</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>12</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>9</v>
       </c>
       <c r="N6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>5</v>
       </c>
       <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="G7" t="n">
-        <v>0.6063156769539201</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.6465437400016839</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.6183840958682492</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="G7" s="2">
+        <v>0.60631567695392008</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.64654374000168391</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.61838409586824916</v>
+      </c>
+      <c r="J7">
         <v>916798</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>92182</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>14</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>6</v>
       </c>
       <c r="N7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="1">
         <v>2</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>3</v>
       </c>
       <c r="F8" t="s">
         <v>40</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.6061607885151987</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.6465437400016839</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.6182756739611442</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="G8" s="2">
+        <v>0.60616078851519872</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.64654374000168391</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.61827567396114425</v>
+      </c>
+      <c r="J8">
         <v>924979</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>93726</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>17</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>9</v>
       </c>
       <c r="N8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="1">
         <v>1.32</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>3</v>
       </c>
       <c r="F9" t="s">
         <v>44</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.6055057969638468</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.6465437400016839</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.6178171798751979</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="G9" s="2">
+        <v>0.60550579696384677</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.64654374000168391</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.61781717987519791</v>
+      </c>
+      <c r="J9">
         <v>758328</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>83386</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>25</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>10</v>
       </c>
       <c r="N9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10" t="n">
-        <v>1.523809523809524</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10" s="1">
+        <v>1.5238095238095239</v>
+      </c>
+      <c r="E10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
         <v>48</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.6049034781845513</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.6465437400016839</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.617395556729691</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="G10" s="2">
+        <v>0.60490347818455126</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.64654374000168391</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.61739555672969104</v>
+      </c>
+      <c r="J10">
         <v>717817</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>80935</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>21</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>6</v>
       </c>
       <c r="N10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>50</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="1">
         <v>1.966666666666667</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>52</v>
       </c>
-      <c r="G11" t="n">
-        <v>0.6043422575388321</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.6465437400016839</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.6170027022776876</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="G11" s="2">
+        <v>0.60434225753883208</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.64654374000168391</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.61700270227768761</v>
+      </c>
+      <c r="J11">
         <v>1020483</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>111751</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>30</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>5</v>
       </c>
       <c r="N11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>54</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="1">
         <v>1.896551724137931</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>3</v>
       </c>
       <c r="F12" t="s">
         <v>56</v>
       </c>
-      <c r="G12" t="n">
-        <v>0.6027146806475543</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.6465437400016839</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.6158633984537931</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="G12" s="2">
+        <v>0.60271468064755429</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.64654374000168391</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.61586339845379312</v>
+      </c>
+      <c r="J12">
         <v>838478</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>95241</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>29</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>9</v>
       </c>
       <c r="N12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>58</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="1">
         <v>1.857142857142857</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>60</v>
       </c>
-      <c r="G13" t="n">
-        <v>0.6017699115044248</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.6465437400016839</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.6152020600536026</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="G13" s="2">
+        <v>0.60176991150442483</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.64654374000168391</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.61520206005360256</v>
+      </c>
+      <c r="J13">
         <v>824900</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>95007</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>28</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>9</v>
       </c>
       <c r="N13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>62</v>
       </c>
       <c r="B14" t="s">
         <v>63</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>3</v>
       </c>
-      <c r="D14" t="n">
-        <v>1.91304347826087</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14" s="1">
+        <v>1.9130434782608701</v>
+      </c>
+      <c r="E14">
         <v>2</v>
       </c>
       <c r="F14" t="s">
         <v>64</v>
       </c>
-      <c r="G14" t="n">
-        <v>0.6015963148271092</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.6465437400016839</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.6150805423794816</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="G14" s="2">
+        <v>0.60159631482710918</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.64654374000168391</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.61508054237948162</v>
+      </c>
+      <c r="J14">
         <v>808863</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>91740</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>23</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>10</v>
       </c>
       <c r="N14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>66</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" t="n">
-        <v>1.894736842105263</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15" s="1">
+        <v>1.8947368421052631</v>
+      </c>
+      <c r="E15">
         <v>3</v>
       </c>
       <c r="F15" t="s">
         <v>68</v>
       </c>
-      <c r="G15" t="n">
-        <v>0.6009917829942302</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.6465437400016839</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.6146573700964663</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="G15" s="2">
+        <v>0.60099178299423017</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.64654374000168391</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.61465737009646626</v>
+      </c>
+      <c r="J15">
         <v>1051843</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>112415</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>19</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>10</v>
       </c>
       <c r="N15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>70</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>6</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="1">
         <v>1.967741935483871</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>3</v>
       </c>
       <c r="F16" t="s">
         <v>72</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="2">
         <v>0.6007053414648621</v>
       </c>
-      <c r="H16" t="n">
-        <v>0.6465437400016839</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.6144568610259086</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="H16" s="2">
+        <v>0.64654374000168391</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.61445686102590857</v>
+      </c>
+      <c r="J16">
         <v>1145828</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>127609</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>31</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>8</v>
       </c>
       <c r="N16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>74</v>
       </c>
       <c r="B17" t="s">
         <v>75</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="1">
         <v>2</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>76</v>
       </c>
-      <c r="G17" t="n">
-        <v>0.6002709309536052</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.6465437400016839</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.6141527736680288</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="G17" s="2">
+        <v>0.60027093095360518</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.64654374000168391</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.61415277366802878</v>
+      </c>
+      <c r="J17">
         <v>1170778</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>131004</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>37</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>10</v>
       </c>
       <c r="N17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>78</v>
       </c>
       <c r="B18" t="s">
         <v>79</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18" t="n">
-        <v>1.918918918918919</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18" s="1">
+        <v>1.9189189189189191</v>
+      </c>
+      <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>80</v>
       </c>
-      <c r="G18" t="n">
-        <v>0.6002709309536052</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.6465437400016839</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.6141527736680288</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="G18" s="2">
+        <v>0.60027093095360518</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.64654374000168391</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.61415277366802878</v>
+      </c>
+      <c r="J18">
         <v>1170778</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>131004</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>37</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>8</v>
       </c>
       <c r="N18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>82</v>
       </c>
       <c r="B19" t="s">
         <v>83</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" t="n">
-        <v>1.740740740740741</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19" s="1">
+        <v>1.7407407407407409</v>
+      </c>
+      <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>84</v>
       </c>
-      <c r="G19" t="n">
-        <v>0.5925154156921114</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.6465437400016839</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.6087239129849832</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="G19" s="2">
+        <v>0.59251541569211141</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.64654374000168391</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.60872391298498318</v>
+      </c>
+      <c r="J19">
         <v>634905</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>77052</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>27</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>5</v>
       </c>
       <c r="N19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>86</v>
       </c>
       <c r="B20" t="s">
         <v>87</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>3</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="1">
         <v>1.964285714285714</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>88</v>
       </c>
-      <c r="G20" t="n">
-        <v>0.5984317510882414</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.6322578637876856</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.6085795848980746</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="G20" s="2">
+        <v>0.59843175108824143</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.63225786378768556</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.60857958489807462</v>
+      </c>
+      <c r="J20">
         <v>1083629</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>118337</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>28</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>10</v>
       </c>
       <c r="N20" t="s">
         <v>89</v>
       </c>
     </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D21" s="1"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <conditionalFormatting sqref="C2:C20">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D20">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E20">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G20">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H20">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I20">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J20">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2FA95024-2365-6F4C-958F-21EF02A53CAC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K20">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{81CBE9FB-CA26-D142-AC5E-A81338A7326D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L20">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8A1D6AA0-60B5-AB46-ABDC-AF5B704ADCB3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M20">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2FA95024-2365-6F4C-958F-21EF02A53CAC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J2:J20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{81CBE9FB-CA26-D142-AC5E-A81338A7326D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K2:K20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8A1D6AA0-60B5-AB46-ABDC-AF5B704ADCB3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L2:L20</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>127</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>